--- a/Lab_5/ADAPT_Blueprint.xlsx
+++ b/Lab_5/ADAPT_Blueprint.xlsx
@@ -703,7 +703,7 @@
     <t>ในฐานะผู้ใช้ ฉันต้องการเห็นข้อมูลของผู้ใช้ เพื่อให้ผู้ใช้ตรวจสอบข้อมูลของตนเองได้</t>
   </si>
   <si>
-    <t>TC_SHOW_PROFILE_001</t>
+    <t>TC_SHOW_EXAM_TABLE_01</t>
   </si>
   <si>
     <t>1. ไปหน้า Profile
@@ -717,7 +717,7 @@
     <t>ในฐานะผู้ใช้ ฉันต้องการเห็นตารางสอบตามปีการศึกษาปัจจุบัน เพื่อให้ผู้ใช้ตรวจสอบข้อมูลตารางสอบของตนเองได้</t>
   </si>
   <si>
-    <t>TC_SHOW_PROFILE_002</t>
+    <t>TC_SHOW_EXAM_TABLE_02</t>
   </si>
   <si>
     <t>1. ไปหน้า Profile
@@ -731,7 +731,7 @@
     <t>ในฐานะผู้ใช้ ฉันต้องการเห็นตารางสอบของภาคการศึกษาที่ 2 เพื่อให้ผู้ใช้ตรวจสอบข้อมูลตารางสอบภาคการศึกษาที่ 2 ของตนเองได้</t>
   </si>
   <si>
-    <t>TC_SHOW_PROFILE_003</t>
+    <t>TC_SHOW_EXAM_TABLE_03</t>
   </si>
   <si>
     <t>1. ไปหน้า Profile
@@ -747,7 +747,7 @@
     <t>ในฐานะผู้ใช้ ฉันต้องการเห็นตารางสอบตามปีการศึกษาที่เลือก เพื่อให้ผู้ใช้ตรวจสอบข้อมูลตารางสอบของตนเองได้</t>
   </si>
   <si>
-    <t>TC_SHOW_PROFILE_004</t>
+    <t>TC_SHOW_EXAM_TABLE_04</t>
   </si>
   <si>
     <t>1. ไปหน้า Profile
@@ -763,7 +763,7 @@
     <t>ในฐานะผู้ใช้ ฉันต้องการเห็นตารางสอบตามปีการศึกษาที่เลือกและปีการศึกษาที่เลือก เพื่อให้ผู้ใช้ตรวจสอบข้อมูลตารางสอบของตนเองได้</t>
   </si>
   <si>
-    <t>TC_SHOW_PROFILE_005</t>
+    <t>TC_SHOW_EXAM_TABLE_05</t>
   </si>
   <si>
     <t>1. ไปหน้า Profile
@@ -2071,7 +2071,7 @@
     <xdr:ext cx="10267950" cy="1609725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2099,7 +2099,7 @@
     <xdr:ext cx="10267950" cy="1876425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2127,7 +2127,7 @@
     <xdr:ext cx="10267950" cy="1762125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2147,15 +2147,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="381000"/>
+    <xdr:ext cx="2076450" cy="3886200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2176,14 +2176,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="381000"/>
+    <xdr:ext cx="2143125" cy="3800475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2204,14 +2204,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="381000"/>
+    <xdr:ext cx="3133725" cy="3352800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2232,14 +2232,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="381000"/>
+    <xdr:ext cx="2914650" cy="2933700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2260,14 +2260,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="400050" cy="381000"/>
+    <xdr:ext cx="3371850" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
